--- a/h2_dashboard/h2_prod/VariablesList.xlsx
+++ b/h2_dashboard/h2_prod/VariablesList.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manun\Documents\CodingProjects\Python\hydrogen_issues\h2_django\h2_dashboard\h2_prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC1AD9A-6094-479C-87FD-70350EFE68F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8966D87-670F-491C-98FC-83FBA9E3AF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="13020" activeTab="1" xr2:uid="{273EF038-2FDB-4C5D-AC68-2872FBEE5DB5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="13020" activeTab="2" xr2:uid="{273EF038-2FDB-4C5D-AC68-2872FBEE5DB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
   <si>
     <t>gas</t>
   </si>
@@ -416,11 +416,56 @@
   <si>
     <t>('h2_prod/', include('h2_prod.urls'))</t>
   </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Natural gas without CCUS</t>
+  </si>
+  <si>
+    <t>a by-product of naphtha reforming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from coal </t>
+  </si>
+  <si>
+    <t>from fossil fuels with CCUS</t>
+  </si>
+  <si>
+    <t>from oil</t>
+  </si>
+  <si>
+    <t>Electrolyzer</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Refining</t>
+  </si>
+  <si>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,7 +554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -534,6 +579,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1794,7 +1842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B75198-7907-494F-B345-8BB0ED31ABEF}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -2310,4 +2358,126 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62F4B5F-485C-4425-9790-288067853BBC}">
+  <dimension ref="B2:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="16">
+        <f>SUM(C5:C10)</f>
+        <v>1.008</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="15">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="14">
+        <f>(40/94)</f>
+        <v>0.42553191489361702</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="14">
+        <f>54/94</f>
+        <v>0.57446808510638303</v>
+      </c>
+      <c r="D14">
+        <f>94-D13</f>
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/h2_dashboard/h2_prod/VariablesList.xlsx
+++ b/h2_dashboard/h2_prod/VariablesList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manun\Documents\CodingProjects\Python\hydrogen_issues\h2_django\h2_dashboard\h2_prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8966D87-670F-491C-98FC-83FBA9E3AF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBFA3BF-1854-413C-8195-7E446B6316C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="13020" activeTab="2" xr2:uid="{273EF038-2FDB-4C5D-AC68-2872FBEE5DB5}"/>
   </bookViews>
@@ -37,8 +37,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D1D0F798-871C-4D6A-BDBB-2F1D4FDCBC76}</author>
+    <author>tc={BF151E51-D139-4FA7-8661-EB5DEAEB9B4D}</author>
+  </authors>
+  <commentList>
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{D1D0F798-871C-4D6A-BDBB-2F1D4FDCBC76}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+     includes small demands in industrial applications such as electronics or glassmaking </t>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{BF151E51-D139-4FA7-8661-EB5DEAEB9B4D}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    includes transport, buildings, power generation sectors and production of hydrogen-based fuels and hydrogen blending </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="139">
   <si>
     <t>gas</t>
   </si>
@@ -458,6 +485,45 @@
   <si>
     <t>Industry</t>
   </si>
+  <si>
+    <t>Google bard</t>
+  </si>
+  <si>
+    <t>Natural gas</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>Iron &amp; Steel</t>
+  </si>
+  <si>
+    <t>Other Industry</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>https://html5up.net/story</t>
+  </si>
+  <si>
+    <t>https://html5up.net/dimension</t>
+  </si>
+  <si>
+    <t>https://html5up.net/forty</t>
+  </si>
+  <si>
+    <t>https://html5up.net/phantom</t>
+  </si>
+  <si>
+    <t>https://html5up.net/solid-state</t>
+  </si>
 </sst>
 </file>
 
@@ -466,7 +532,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +561,12 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -564,6 +636,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -579,9 +654,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1146,6 +1218,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Tuan Muda" id="{13A54432-0B4F-4588-8CD9-BE13E4D28A9C}" userId="6a6a08cccf3870e8" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1461,6 +1539,17 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F6" dT="2023-12-06T04:59:30.82" personId="{13A54432-0B4F-4588-8CD9-BE13E4D28A9C}" id="{D1D0F798-871C-4D6A-BDBB-2F1D4FDCBC76}">
+    <text xml:space="preserve"> includes small demands in industrial applications such as electronics or glassmaking </text>
+  </threadedComment>
+  <threadedComment ref="F7" dT="2023-12-06T04:59:39.91" personId="{13A54432-0B4F-4588-8CD9-BE13E4D28A9C}" id="{BF151E51-D139-4FA7-8661-EB5DEAEB9B4D}">
+    <text xml:space="preserve">includes transport, buildings, power generation sectors and production of hydrogen-based fuels and hydrogen blending </text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A672B7-B8E4-4A2A-BE23-D9610FDF96DC}">
   <dimension ref="B2:Y26"/>
@@ -1702,97 +1791,97 @@
       <c r="X9" s="5"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="15"/>
     </row>
     <row r="17" spans="5:25" x14ac:dyDescent="0.35">
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="15"/>
     </row>
     <row r="18" spans="5:25" x14ac:dyDescent="0.35">
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="15"/>
     </row>
     <row r="19" spans="5:25" x14ac:dyDescent="0.35">
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13" t="s">
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
       <c r="X19" s="6" t="s">
         <v>8</v>
       </c>
@@ -2361,90 +2450,136 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62F4B5F-485C-4425-9790-288067853BBC}">
-  <dimension ref="B2:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62F4B5F-485C-4425-9790-288067853BBC}">
+  <dimension ref="B2:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="14"/>
+    <col min="3" max="3" width="8.7265625" style="9"/>
+    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="11">
         <f>SUM(C5:C10)</f>
         <v>1.008</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="H3">
+        <f>G3/G8</f>
+        <v>0.42201251192874567</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="9">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="9">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="9">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="10">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8">
+        <f>SUM(G3:G7)</f>
+        <v>94.309999999999988</v>
+      </c>
+      <c r="H8">
+        <f>G8*0.6</f>
+        <v>56.585999999999991</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="10">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="10">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>122</v>
       </c>
@@ -2452,11 +2587,11 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="9">
         <f>(40/94)</f>
         <v>0.42553191489361702</v>
       </c>
@@ -2464,11 +2599,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="9">
         <f>54/94</f>
         <v>0.57446808510638303</v>
       </c>
@@ -2477,7 +2612,60 @@
         <v>54</v>
       </c>
     </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B22" r:id="rId1" xr:uid="{5EFCAF2D-27F1-4A81-8194-54ADA1EB3084}"/>
+    <hyperlink ref="B23" r:id="rId2" xr:uid="{07C39792-744A-4CE4-88FA-EF243DE40D88}"/>
+    <hyperlink ref="B24" r:id="rId3" xr:uid="{5D4ACC21-121A-4F39-A5B7-5A93F57337F9}"/>
+    <hyperlink ref="B25" r:id="rId4" xr:uid="{531086C3-2A8A-4A12-B0A2-798BBFE21258}"/>
+    <hyperlink ref="B26" r:id="rId5" xr:uid="{9DD02300-2468-4102-BFF3-BF2E62F59089}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>